--- a/Others/Price list with Benefit.xlsx
+++ b/Others/Price list with Benefit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho Corporation\Others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63000121-AAA3-4006-A3A9-8E6B834B2A97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D296599-DE3E-4262-9483-0B739947D0F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
   <si>
     <t>Model</t>
   </si>
@@ -270,9 +270,6 @@
     <t>Address: Rozy Market, Station Bazar, Natore</t>
   </si>
   <si>
-    <t>November Month'2019</t>
-  </si>
-  <si>
     <t>Discount</t>
   </si>
   <si>
@@ -325,6 +322,12 @@
   </si>
   <si>
     <t>i110</t>
+  </si>
+  <si>
+    <t>L250i</t>
+  </si>
+  <si>
+    <t>Md Muradur Rahman=01740883469</t>
   </si>
 </sst>
 </file>
@@ -334,7 +337,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +418,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -534,7 +545,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -612,6 +623,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2960,8 +2974,8 @@
   </sheetPr>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O5:O6"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection sqref="A1:K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3018,13 +3032,13 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
+      <c r="G3" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -3037,10 +3051,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="9" t="s">
@@ -3053,10 +3067,10 @@
         <v>2</v>
       </c>
       <c r="J4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3133,7 +3147,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" s="1">
         <v>970</v>
@@ -3258,7 +3272,7 @@
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2">
         <v>800</v>
@@ -3359,7 +3373,7 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15" s="1">
         <v>1190</v>
@@ -3598,7 +3612,7 @@
     </row>
     <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="1">
         <v>1040</v>
@@ -3832,7 +3846,7 @@
     </row>
     <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" s="1">
         <v>2770</v>
@@ -3863,7 +3877,7 @@
     </row>
     <row r="33" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33" s="1">
         <v>8290</v>
@@ -3892,7 +3906,7 @@
     </row>
     <row r="34" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B34" s="1">
         <v>8340</v>
@@ -3944,7 +3958,7 @@
     </row>
     <row r="36" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B36" s="1">
         <v>6540</v>
@@ -3973,7 +3987,7 @@
     </row>
     <row r="37" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B37" s="1">
         <v>5290</v>
@@ -4004,7 +4018,7 @@
     </row>
     <row r="38" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B38" s="1">
         <v>5470</v>
@@ -4033,7 +4047,7 @@
     </row>
     <row r="39" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B39" s="1">
         <v>5750</v>
@@ -4062,7 +4076,7 @@
     </row>
     <row r="40" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B40" s="1">
         <v>5550</v>
@@ -4091,7 +4105,7 @@
     </row>
     <row r="41" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B41" s="1">
         <v>5940</v>
@@ -4143,7 +4157,7 @@
     </row>
     <row r="43" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B43" s="1">
         <v>6530</v>
@@ -4174,7 +4188,7 @@
     </row>
     <row r="44" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B44" s="1">
         <v>6890</v>
@@ -4291,7 +4305,9 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
+      <c r="A48" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="2"/>
@@ -4327,12 +4343,18 @@
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="H49" s="1">
+        <v>8310</v>
+      </c>
+      <c r="I49" s="1">
+        <v>8990</v>
+      </c>
       <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">

--- a/Others/Price list with Benefit.xlsx
+++ b/Others/Price list with Benefit.xlsx
@@ -8,20 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D296599-DE3E-4262-9483-0B739947D0F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86A1D1D-1085-49C4-B6B2-8BE1E3267090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Print!$A$4:$E$51</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -327,7 +334,7 @@
     <t>L250i</t>
   </si>
   <si>
-    <t>Md Muradur Rahman=01740883469</t>
+    <t>Z25</t>
   </si>
 </sst>
 </file>
@@ -337,19 +344,13 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -359,34 +360,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="25"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -427,6 +400,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="120"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -454,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -539,93 +543,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2974,1485 +3016,1518 @@
   </sheetPr>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection sqref="A1:K53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12" style="11" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="11" style="11" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" x14ac:dyDescent="0.5">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-    </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="29" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>800</v>
+      </c>
+      <c r="C5" s="4">
+        <v>875</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <v>10</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="17">
+        <v>1010</v>
+      </c>
+      <c r="I5" s="17">
+        <v>1090</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="4">
+        <v>780</v>
+      </c>
+      <c r="C6" s="4">
+        <v>840</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>10</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1040</v>
+      </c>
+      <c r="I6" s="17">
+        <v>1130</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="4">
+        <v>810</v>
+      </c>
+      <c r="C7" s="4">
+        <v>880</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>10</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="17">
+        <v>970</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1050</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>800</v>
+      </c>
+      <c r="C8" s="4">
+        <v>870</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <v>10</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1100</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1199</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4">
+        <v>790</v>
+      </c>
+      <c r="C9" s="4">
+        <v>860</v>
+      </c>
+      <c r="D9" s="4">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4">
+        <v>10</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="17">
+        <v>1050</v>
+      </c>
+      <c r="I9" s="17">
+        <v>1130</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="4">
+        <v>800</v>
+      </c>
+      <c r="C10" s="4">
+        <v>860</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <v>10</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="4">
+        <v>790</v>
+      </c>
+      <c r="C11" s="4">
+        <v>850</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
+        <v>10</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="17">
+        <v>1100</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1190</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="4">
+        <v>800</v>
+      </c>
+      <c r="C12" s="4">
+        <v>860</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
+        <v>10</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="17">
+        <v>1330</v>
+      </c>
+      <c r="I12" s="17">
+        <v>1450</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="4">
+        <v>915</v>
+      </c>
+      <c r="C13" s="4">
+        <v>990</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="17">
+        <v>1200</v>
+      </c>
+      <c r="I13" s="17">
+        <v>1299</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4">
+        <v>890</v>
+      </c>
+      <c r="C14" s="4">
+        <v>970</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
+        <v>10</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1100</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1190</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="4">
+        <v>920</v>
+      </c>
+      <c r="C15" s="4">
+        <v>999</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="17">
+        <v>1190</v>
+      </c>
+      <c r="I15" s="17">
+        <v>1290</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4">
+        <v>880</v>
+      </c>
+      <c r="C16" s="4">
+        <v>950</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4">
+        <v>20</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="17">
+        <v>12240</v>
+      </c>
+      <c r="I16" s="17">
+        <v>12990</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="4">
+        <v>845</v>
+      </c>
+      <c r="C17" s="4">
+        <v>910</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4">
+        <v>10</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="17">
+        <v>12090</v>
+      </c>
+      <c r="I17" s="17">
+        <v>12990</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1090</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="17">
+        <v>12490</v>
+      </c>
+      <c r="I18" s="17">
+        <v>13490</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="4">
+        <v>995</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1075</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="17">
+        <v>5750</v>
+      </c>
+      <c r="I19" s="17">
+        <v>6190</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="17">
+        <v>880</v>
+      </c>
+      <c r="C20" s="17">
+        <v>950</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4">
+        <v>10</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="17">
+        <v>17790</v>
+      </c>
+      <c r="I20" s="17">
+        <v>18990</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="17">
+        <v>10330</v>
+      </c>
+      <c r="I21" s="17">
+        <v>10990</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="4">
+        <v>900</v>
+      </c>
+      <c r="C22" s="4">
+        <v>970</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4">
+        <v>10</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="17">
+        <v>1730</v>
+      </c>
+      <c r="I22" s="17">
+        <v>1890</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1040</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1120</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4">
+        <v>20</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="17">
+        <v>1250</v>
+      </c>
+      <c r="I23" s="17">
+        <v>1350</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="17">
+        <v>1040</v>
+      </c>
+      <c r="C24" s="17">
+        <v>1120</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4">
+        <v>20</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="17">
+        <v>1370</v>
+      </c>
+      <c r="I24" s="17">
+        <v>1490</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="17">
+        <v>930</v>
+      </c>
+      <c r="C25" s="17">
+        <v>999</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4">
+        <v>10</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="17">
+        <v>1890</v>
+      </c>
+      <c r="I25" s="17">
+        <v>2090</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="17">
+        <v>1290</v>
+      </c>
+      <c r="C26" s="17">
+        <v>1390</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4">
+        <v>10</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="17">
+        <v>1480</v>
+      </c>
+      <c r="I26" s="17">
+        <v>1590</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="17">
+        <v>1190</v>
+      </c>
+      <c r="C27" s="17">
+        <v>1290</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4">
+        <v>10</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="17">
+        <v>4280</v>
+      </c>
+      <c r="I27" s="17">
+        <v>4590</v>
+      </c>
+      <c r="J27" s="4">
+        <v>300</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="17">
+        <v>1270</v>
+      </c>
+      <c r="C28" s="17">
+        <v>1370</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4">
+        <v>10</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="17">
+        <v>5650</v>
+      </c>
+      <c r="I28" s="17">
+        <v>6150</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="17">
+        <v>1170</v>
+      </c>
+      <c r="C29" s="17">
+        <v>1270</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4">
+        <v>10</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="17">
+        <v>5020</v>
+      </c>
+      <c r="I29" s="17">
+        <v>5390</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="17">
+        <v>1190</v>
+      </c>
+      <c r="C30" s="17">
+        <v>1290</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4">
+        <v>10</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="17">
+        <v>5280</v>
+      </c>
+      <c r="I30" s="17">
+        <v>5690</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="17">
+        <v>2780</v>
+      </c>
+      <c r="C31" s="17">
+        <v>2990</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4">
+        <v>30</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="17">
+        <v>4550</v>
+      </c>
+      <c r="I31" s="17">
+        <v>4890</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="17">
+        <v>2770</v>
+      </c>
+      <c r="C32" s="17">
+        <v>2990</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4">
+        <v>30</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="17">
+        <v>5100</v>
+      </c>
+      <c r="I32" s="17">
+        <v>5490</v>
+      </c>
+      <c r="J32" s="4">
+        <v>70</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="17">
+        <v>8290</v>
+      </c>
+      <c r="C33" s="17">
+        <v>8890</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="17">
+        <v>5560</v>
+      </c>
+      <c r="I33" s="17">
+        <v>5990</v>
+      </c>
+      <c r="J33" s="4">
+        <v>200</v>
+      </c>
+      <c r="K33" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="17">
+        <v>8340</v>
+      </c>
+      <c r="C34" s="17">
+        <v>8990</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4">
+        <v>100</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="17">
+        <v>9190</v>
+      </c>
+      <c r="C35" s="17">
+        <v>9990</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4">
+        <v>170</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="17">
+        <v>5390</v>
+      </c>
+      <c r="I35" s="17">
+        <v>5790</v>
+      </c>
+      <c r="J35" s="4">
+        <v>200</v>
+      </c>
+      <c r="K35" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="17">
+        <v>6540</v>
+      </c>
+      <c r="C36" s="17">
+        <v>6990</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="17">
+        <v>3560</v>
+      </c>
+      <c r="I36" s="17">
+        <v>3840</v>
+      </c>
+      <c r="J36" s="4">
+        <v>400</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="17">
+        <v>5290</v>
+      </c>
+      <c r="C37" s="17">
+        <v>5690</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4">
+        <v>80</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="17">
+        <v>3340</v>
+      </c>
+      <c r="I37" s="17">
+        <v>3590</v>
+      </c>
+      <c r="J37" s="4">
+        <v>320</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="17">
+        <v>5470</v>
+      </c>
+      <c r="C38" s="17">
+        <v>5890</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4">
+        <v>70</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="17">
+        <v>4500</v>
+      </c>
+      <c r="I38" s="17">
+        <v>4790</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="17">
+        <v>5750</v>
+      </c>
+      <c r="C39" s="17">
+        <v>6190</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4">
+        <v>80</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="17">
+        <v>5390</v>
+      </c>
+      <c r="I39" s="17">
+        <v>5790</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="17">
+        <v>5550</v>
+      </c>
+      <c r="C40" s="17">
+        <v>5990</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4">
+        <v>60</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="17">
+        <v>4970</v>
+      </c>
+      <c r="I40" s="17">
+        <v>5290</v>
+      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="17">
+        <v>5940</v>
+      </c>
+      <c r="C41" s="17">
+        <v>6390</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4">
+        <v>90</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" s="17">
+        <v>4015</v>
+      </c>
+      <c r="I41" s="17">
+        <v>4390</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="17">
+        <v>3710</v>
+      </c>
+      <c r="I42" s="17">
+        <v>3990</v>
+      </c>
+      <c r="J42" s="4">
+        <v>200</v>
+      </c>
+      <c r="K42" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="17">
+        <v>6530</v>
+      </c>
+      <c r="C43" s="17">
+        <v>6990</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="16"/>
+      <c r="G43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="17">
+        <v>3620</v>
+      </c>
+      <c r="I43" s="17">
+        <v>3890</v>
+      </c>
+      <c r="J43" s="4">
+        <v>320</v>
+      </c>
+      <c r="K43" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="17">
+        <v>6890</v>
+      </c>
+      <c r="C44" s="17">
+        <v>7490</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" s="17">
+        <v>4080</v>
+      </c>
+      <c r="I44" s="17">
+        <v>4390</v>
+      </c>
+      <c r="J44" s="4">
+        <v>200</v>
+      </c>
+      <c r="K44" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="17">
+        <v>1220</v>
+      </c>
+      <c r="C45" s="17">
+        <v>1320</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4">
+        <v>20</v>
+      </c>
+      <c r="F45" s="16"/>
+      <c r="G45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="17">
+        <v>4220</v>
+      </c>
+      <c r="I45" s="17">
+        <v>4540</v>
+      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="17">
+        <v>1460</v>
+      </c>
+      <c r="C46" s="17">
+        <v>1590</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4">
+        <v>20</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" s="17">
+        <v>3710</v>
+      </c>
+      <c r="I46" s="17">
+        <v>3990</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="17">
+        <v>1070</v>
+      </c>
+      <c r="C47" s="17">
+        <v>1160</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" s="17">
+        <v>12590</v>
+      </c>
+      <c r="I47" s="17">
+        <v>13490</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="17">
+        <v>1160</v>
+      </c>
+      <c r="C48" s="17">
+        <v>1250</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H48" s="17">
+        <v>7890</v>
+      </c>
+      <c r="I48" s="17">
+        <v>8490</v>
+      </c>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="17">
+        <v>1200</v>
+      </c>
+      <c r="C49" s="17">
+        <v>1290</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="16"/>
+      <c r="G49" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H49" s="17">
+        <v>8310</v>
+      </c>
+      <c r="I49" s="17">
+        <v>8990</v>
+      </c>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="17">
+        <v>1080</v>
+      </c>
+      <c r="C50" s="17">
+        <v>1160</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4">
+        <v>10</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>800</v>
-      </c>
-      <c r="C5" s="2">
-        <v>875</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1010</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1090</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2">
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="18"/>
+    </row>
+    <row r="51" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="17">
+        <v>1100</v>
+      </c>
+      <c r="C51" s="17">
+        <v>1199</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="2">
-        <v>780</v>
-      </c>
-      <c r="C6" s="2">
-        <v>840</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1040</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1130</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="2">
-        <v>810</v>
-      </c>
-      <c r="C7" s="2">
-        <v>880</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="1">
-        <v>970</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1050</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2">
-        <v>800</v>
-      </c>
-      <c r="C8" s="2">
-        <v>870</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1100</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1199</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2">
-        <v>790</v>
-      </c>
-      <c r="C9" s="2">
-        <v>860</v>
-      </c>
-      <c r="D9" s="2">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1050</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1130</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="2">
-        <v>800</v>
-      </c>
-      <c r="C10" s="2">
-        <v>860</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="2">
-        <v>790</v>
-      </c>
-      <c r="C11" s="2">
-        <v>850</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1100</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1190</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="2">
-        <v>800</v>
-      </c>
-      <c r="C12" s="2">
-        <v>860</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1330</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1450</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="2">
-        <v>915</v>
-      </c>
-      <c r="C13" s="2">
-        <v>990</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1200</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1299</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2">
-        <v>890</v>
-      </c>
-      <c r="C14" s="2">
-        <v>970</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1100</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1190</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="2">
-        <v>920</v>
-      </c>
-      <c r="C15" s="2">
-        <v>999</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1190</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1290</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="2">
-        <v>880</v>
-      </c>
-      <c r="C16" s="2">
-        <v>950</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
-        <v>20</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="1">
-        <v>12240</v>
-      </c>
-      <c r="I16" s="1">
-        <v>12990</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="2">
-        <v>845</v>
-      </c>
-      <c r="C17" s="2">
-        <v>910</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2">
-        <v>10</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="1">
-        <v>12090</v>
-      </c>
-      <c r="I17" s="1">
-        <v>12990</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1090</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="1">
-        <v>12490</v>
-      </c>
-      <c r="I18" s="1">
-        <v>13490</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="2">
-        <v>995</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1075</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="1">
-        <v>5750</v>
-      </c>
-      <c r="I19" s="1">
-        <v>6190</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="1">
-        <v>880</v>
-      </c>
-      <c r="C20" s="1">
-        <v>950</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="1">
-        <v>17790</v>
-      </c>
-      <c r="I20" s="1">
-        <v>18990</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="1">
-        <v>10330</v>
-      </c>
-      <c r="I21" s="1">
-        <v>10990</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="2">
-        <v>900</v>
-      </c>
-      <c r="C22" s="2">
-        <v>970</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2">
-        <v>10</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1730</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1890</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1040</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1120</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2">
-        <v>20</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1250</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1350</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1040</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1120</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2">
-        <v>20</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1370</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1490</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="1">
-        <v>930</v>
-      </c>
-      <c r="C25" s="1">
-        <v>999</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2">
-        <v>10</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1890</v>
-      </c>
-      <c r="I25" s="1">
-        <v>2090</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1290</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1390</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2">
-        <v>10</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1480</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1590</v>
-      </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1190</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1290</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2">
-        <v>10</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="1">
-        <v>4280</v>
-      </c>
-      <c r="I27" s="1">
-        <v>4590</v>
-      </c>
-      <c r="J27" s="2">
-        <v>300</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1270</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1370</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2">
-        <v>10</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="1">
-        <v>5650</v>
-      </c>
-      <c r="I28" s="1">
-        <v>6150</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1170</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1270</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2">
-        <v>10</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="1">
-        <v>5020</v>
-      </c>
-      <c r="I29" s="1">
-        <v>5390</v>
-      </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1190</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1290</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2">
-        <v>10</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="1">
-        <v>5280</v>
-      </c>
-      <c r="I30" s="1">
-        <v>5690</v>
-      </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2780</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2990</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2">
-        <v>30</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="1">
-        <v>4550</v>
-      </c>
-      <c r="I31" s="1">
-        <v>4890</v>
-      </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2770</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2990</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2">
-        <v>30</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32" s="1">
-        <v>5100</v>
-      </c>
-      <c r="I32" s="1">
-        <v>5490</v>
-      </c>
-      <c r="J32" s="2">
-        <v>70</v>
-      </c>
-      <c r="K32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="1">
-        <v>8290</v>
-      </c>
-      <c r="C33" s="1">
-        <v>8890</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="1">
-        <v>5560</v>
-      </c>
-      <c r="I33" s="1">
-        <v>5990</v>
-      </c>
-      <c r="J33" s="2">
-        <v>200</v>
-      </c>
-      <c r="K33" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="1">
-        <v>8340</v>
-      </c>
-      <c r="C34" s="1">
-        <v>8990</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2">
-        <v>100</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1">
-        <v>9190</v>
-      </c>
-      <c r="C35" s="1">
-        <v>9990</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2">
-        <v>170</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="1">
-        <v>5390</v>
-      </c>
-      <c r="I35" s="1">
-        <v>5790</v>
-      </c>
-      <c r="J35" s="2">
-        <v>200</v>
-      </c>
-      <c r="K35" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="1">
-        <v>6540</v>
-      </c>
-      <c r="C36" s="1">
-        <v>6990</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="1">
-        <v>3560</v>
-      </c>
-      <c r="I36" s="1">
-        <v>3840</v>
-      </c>
-      <c r="J36" s="2">
-        <v>400</v>
-      </c>
-      <c r="K36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="1">
-        <v>5290</v>
-      </c>
-      <c r="C37" s="1">
-        <v>5690</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2">
-        <v>80</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37" s="1">
-        <v>3340</v>
-      </c>
-      <c r="I37" s="1">
-        <v>3590</v>
-      </c>
-      <c r="J37" s="2">
-        <v>320</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="1">
-        <v>5470</v>
-      </c>
-      <c r="C38" s="1">
-        <v>5890</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2">
-        <v>70</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H38" s="1">
-        <v>4500</v>
-      </c>
-      <c r="I38" s="1">
-        <v>4790</v>
-      </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="1">
-        <v>5750</v>
-      </c>
-      <c r="C39" s="1">
-        <v>6190</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2">
-        <v>80</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" s="1">
-        <v>5390</v>
-      </c>
-      <c r="I39" s="1">
-        <v>5790</v>
-      </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40" s="1">
-        <v>5550</v>
-      </c>
-      <c r="C40" s="1">
-        <v>5990</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2">
-        <v>60</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="1">
-        <v>4970</v>
-      </c>
-      <c r="I40" s="1">
-        <v>5290</v>
-      </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="1">
-        <v>5940</v>
-      </c>
-      <c r="C41" s="1">
-        <v>6390</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2">
-        <v>90</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H41" s="1">
-        <v>4015</v>
-      </c>
-      <c r="I41" s="1">
-        <v>4390</v>
-      </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="1">
-        <v>3710</v>
-      </c>
-      <c r="I42" s="1">
-        <v>3990</v>
-      </c>
-      <c r="J42" s="2">
-        <v>200</v>
-      </c>
-      <c r="K42" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="1">
-        <v>6530</v>
-      </c>
-      <c r="C43" s="1">
-        <v>6990</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H43" s="1">
-        <v>3620</v>
-      </c>
-      <c r="I43" s="1">
-        <v>3890</v>
-      </c>
-      <c r="J43" s="2">
-        <v>320</v>
-      </c>
-      <c r="K43" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="1">
-        <v>6890</v>
-      </c>
-      <c r="C44" s="1">
-        <v>7490</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H44" s="1">
-        <v>4080</v>
-      </c>
-      <c r="I44" s="1">
-        <v>4390</v>
-      </c>
-      <c r="J44" s="2">
-        <v>200</v>
-      </c>
-      <c r="K44" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="1">
-        <v>1220</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1320</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2">
-        <v>20</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="1">
-        <v>4220</v>
-      </c>
-      <c r="I45" s="1">
-        <v>4540</v>
-      </c>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" s="1">
-        <v>1460</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1590</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2">
-        <v>20</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H46" s="1">
-        <v>3710</v>
-      </c>
-      <c r="I46" s="1">
-        <v>3990</v>
-      </c>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="1">
-        <v>1070</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1160</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" s="1">
-        <v>12590</v>
-      </c>
-      <c r="I47" s="1">
-        <v>13490</v>
-      </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H48" s="1">
-        <v>7890</v>
-      </c>
-      <c r="I48" s="1">
-        <v>8490</v>
-      </c>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="1">
-        <v>1200</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1290</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H49" s="1">
-        <v>8310</v>
-      </c>
-      <c r="I49" s="1">
-        <v>8990</v>
-      </c>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="1">
-        <v>1080</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1160</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2">
-        <v>10</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="6"/>
-    </row>
-    <row r="51" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1199</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2">
-        <v>20</v>
-      </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="6"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="18"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="26" t="s">
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
       <c r="I52" s="22" t="s">
         <v>78</v>
       </c>
       <c r="J52" s="22"/>
       <c r="K52" s="23"/>
-      <c r="L52" s="7"/>
+      <c r="L52" s="24"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="7"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="24"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L54" s="6"/>
+      <c r="L54" s="18"/>
     </row>
   </sheetData>
   <sortState ref="A7:H83">
     <sortCondition ref="A7"/>
   </sortState>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A52:C53"/>
     <mergeCell ref="I52:K53"/>
     <mergeCell ref="D52:H53"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A3:K3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E9862D-9001-476E-9A38-129756CB5AB1}">
+  <dimension ref="D6:D7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:4" ht="153" x14ac:dyDescent="0.25">
+      <c r="D6" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" ht="153" x14ac:dyDescent="0.25">
+      <c r="D7" s="30">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Others/Price list with Benefit.xlsx
+++ b/Others/Price list with Benefit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86A1D1D-1085-49C4-B6B2-8BE1E3267090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED49262E-3AF8-475E-9054-730C85BC9974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="102">
   <si>
     <t>Model</t>
   </si>
@@ -148,9 +148,6 @@
     <t>P11</t>
   </si>
   <si>
-    <t>Z10</t>
-  </si>
-  <si>
     <t>P9+</t>
   </si>
   <si>
@@ -335,6 +332,15 @@
   </si>
   <si>
     <t>Z25</t>
+  </si>
+  <si>
+    <t>V105</t>
+  </si>
+  <si>
+    <t>V102</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discount</t>
   </si>
 </sst>
 </file>
@@ -612,22 +618,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -636,14 +627,27 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -651,23 +655,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3017,7 +3023,7 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="O55" sqref="O55"/>
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3027,59 +3033,59 @@
     <col min="3" max="3" width="11.140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="8" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12" style="11" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="11" style="11" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="11"/>
+    <col min="6" max="6" width="2.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="12" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="11" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+    </row>
+    <row r="3" spans="1:11" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -3092,10 +3098,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="1" t="s">
@@ -3108,10 +3114,10 @@
         <v>2</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3128,14 +3134,14 @@
       <c r="E5" s="4">
         <v>10</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="12">
         <v>1010</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="12">
         <v>1090</v>
       </c>
       <c r="J5" s="4"/>
@@ -3145,7 +3151,7 @@
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="4">
         <v>780</v>
@@ -3157,14 +3163,14 @@
       <c r="E6" s="4">
         <v>10</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="12">
         <v>1040</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="12">
         <v>1130</v>
       </c>
       <c r="J6" s="4"/>
@@ -3174,7 +3180,7 @@
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="4">
         <v>810</v>
@@ -3186,14 +3192,14 @@
       <c r="E7" s="4">
         <v>10</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="17">
+        <v>81</v>
+      </c>
+      <c r="H7" s="12">
         <v>970</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="12">
         <v>1050</v>
       </c>
       <c r="J7" s="4"/>
@@ -3215,14 +3221,14 @@
       <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="17">
+        <v>40</v>
+      </c>
+      <c r="H8" s="12">
         <v>1100</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="12">
         <v>1199</v>
       </c>
       <c r="J8" s="4"/>
@@ -3240,20 +3246,18 @@
       <c r="C9" s="4">
         <v>860</v>
       </c>
-      <c r="D9" s="4">
-        <v>30</v>
-      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="4">
         <v>10</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="17">
+        <v>59</v>
+      </c>
+      <c r="H9" s="12">
         <v>1050</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="12">
         <v>1130</v>
       </c>
       <c r="J9" s="4"/>
@@ -3263,7 +3267,7 @@
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="4">
         <v>800</v>
@@ -3275,16 +3279,16 @@
       <c r="E10" s="4">
         <v>10</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="4">
         <v>790</v>
@@ -3296,14 +3300,14 @@
       <c r="E11" s="4">
         <v>10</v>
       </c>
-      <c r="F11" s="16"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="12">
         <v>1100</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="12">
         <v>1190</v>
       </c>
       <c r="J11" s="4"/>
@@ -3313,7 +3317,7 @@
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="4">
         <v>800</v>
@@ -3325,14 +3329,14 @@
       <c r="E12" s="4">
         <v>10</v>
       </c>
-      <c r="F12" s="16"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="12">
         <v>1330</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="12">
         <v>1450</v>
       </c>
       <c r="J12" s="4"/>
@@ -3342,7 +3346,7 @@
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="4">
         <v>915</v>
@@ -3354,14 +3358,14 @@
       <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="16"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="12">
         <v>1200</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="12">
         <v>1299</v>
       </c>
       <c r="J13" s="4"/>
@@ -3383,14 +3387,14 @@
       <c r="E14" s="4">
         <v>10</v>
       </c>
-      <c r="F14" s="16"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="17">
+        <v>72</v>
+      </c>
+      <c r="H14" s="12">
         <v>1100</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="12">
         <v>1190</v>
       </c>
       <c r="J14" s="4"/>
@@ -3400,7 +3404,7 @@
     </row>
     <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="4">
         <v>920</v>
@@ -3412,14 +3416,14 @@
       <c r="E15" s="4">
         <v>0</v>
       </c>
-      <c r="F15" s="16"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="17">
+        <v>83</v>
+      </c>
+      <c r="H15" s="12">
         <v>1190</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="12">
         <v>1290</v>
       </c>
       <c r="J15" s="4"/>
@@ -3441,14 +3445,14 @@
       <c r="E16" s="4">
         <v>20</v>
       </c>
-      <c r="F16" s="16"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="12">
         <v>12240</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="12">
         <v>12990</v>
       </c>
       <c r="J16" s="4"/>
@@ -3458,7 +3462,7 @@
     </row>
     <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="4">
         <v>845</v>
@@ -3470,14 +3474,14 @@
       <c r="E17" s="4">
         <v>10</v>
       </c>
-      <c r="F17" s="16"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="12">
         <v>12090</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="12">
         <v>12990</v>
       </c>
       <c r="J17" s="4"/>
@@ -3487,7 +3491,7 @@
     </row>
     <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="4">
         <v>1000</v>
@@ -3499,14 +3503,14 @@
       <c r="E18" s="4">
         <v>0</v>
       </c>
-      <c r="F18" s="16"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="17">
+        <v>37</v>
+      </c>
+      <c r="H18" s="12">
         <v>12490</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="12">
         <v>13490</v>
       </c>
       <c r="J18" s="4"/>
@@ -3516,7 +3520,7 @@
     </row>
     <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="4">
         <v>995</v>
@@ -3528,14 +3532,14 @@
       <c r="E19" s="4">
         <v>0</v>
       </c>
-      <c r="F19" s="16"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="17">
+        <v>58</v>
+      </c>
+      <c r="H19" s="12">
         <v>5750</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="12">
         <v>6190</v>
       </c>
       <c r="J19" s="4"/>
@@ -3545,26 +3549,26 @@
     </row>
     <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="17">
+        <v>70</v>
+      </c>
+      <c r="B20" s="12">
         <v>880</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="12">
         <v>950</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4">
         <v>10</v>
       </c>
-      <c r="F20" s="16"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="17">
+        <v>39</v>
+      </c>
+      <c r="H20" s="12">
         <v>17790</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="12">
         <v>18990</v>
       </c>
       <c r="J20" s="4"/>
@@ -3574,18 +3578,18 @@
     </row>
     <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="16"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="17">
+        <v>38</v>
+      </c>
+      <c r="H21" s="12">
         <v>10330</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="12">
         <v>10990</v>
       </c>
       <c r="J21" s="4"/>
@@ -3595,7 +3599,7 @@
     </row>
     <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="4">
         <v>900</v>
@@ -3607,14 +3611,14 @@
       <c r="E22" s="4">
         <v>10</v>
       </c>
-      <c r="F22" s="16"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="17">
+        <v>66</v>
+      </c>
+      <c r="H22" s="12">
         <v>1730</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="12">
         <v>1890</v>
       </c>
       <c r="J22" s="4"/>
@@ -3624,7 +3628,7 @@
     </row>
     <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="4">
         <v>1040</v>
@@ -3636,14 +3640,14 @@
       <c r="E23" s="4">
         <v>20</v>
       </c>
-      <c r="F23" s="16"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="12">
         <v>1250</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="12">
         <v>1350</v>
       </c>
       <c r="J23" s="4"/>
@@ -3653,26 +3657,26 @@
     </row>
     <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="17">
+        <v>84</v>
+      </c>
+      <c r="B24" s="12">
         <v>1040</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="12">
         <v>1120</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4">
         <v>20</v>
       </c>
-      <c r="F24" s="16"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="17">
+        <v>41</v>
+      </c>
+      <c r="H24" s="12">
         <v>1370</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="12">
         <v>1490</v>
       </c>
       <c r="J24" s="4"/>
@@ -3682,26 +3686,26 @@
     </row>
     <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="17">
+        <v>67</v>
+      </c>
+      <c r="B25" s="12">
         <v>930</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="12">
         <v>999</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4">
         <v>10</v>
       </c>
-      <c r="F25" s="16"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="12">
         <v>1890</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="12">
         <v>2090</v>
       </c>
       <c r="J25" s="4"/>
@@ -3713,24 +3717,24 @@
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="12">
         <v>1290</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="12">
         <v>1390</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4">
         <v>10</v>
       </c>
-      <c r="F26" s="16"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="12">
         <v>1480</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="12">
         <v>1590</v>
       </c>
       <c r="J26" s="4"/>
@@ -3740,26 +3744,26 @@
     </row>
     <row r="27" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="17">
+        <v>57</v>
+      </c>
+      <c r="B27" s="12">
         <v>1190</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="12">
         <v>1290</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4">
         <v>10</v>
       </c>
-      <c r="F27" s="16"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="17">
+        <v>55</v>
+      </c>
+      <c r="H27" s="12">
         <v>4280</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="12">
         <v>4590</v>
       </c>
       <c r="J27" s="4">
@@ -3773,24 +3777,24 @@
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="12">
         <v>1270</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="12">
         <v>1370</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4">
         <v>10</v>
       </c>
-      <c r="F28" s="16"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="12">
         <v>5650</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="12">
         <v>6150</v>
       </c>
       <c r="J28" s="4"/>
@@ -3800,26 +3804,26 @@
     </row>
     <row r="29" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="17">
+        <v>61</v>
+      </c>
+      <c r="B29" s="12">
         <v>1170</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="12">
         <v>1270</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4">
         <v>10</v>
       </c>
-      <c r="F29" s="16"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="12">
         <v>5020</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="12">
         <v>5390</v>
       </c>
       <c r="J29" s="4"/>
@@ -3831,24 +3835,24 @@
       <c r="A30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="12">
         <v>1190</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="12">
         <v>1290</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4">
         <v>10</v>
       </c>
-      <c r="F30" s="16"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="12">
         <v>5280</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="12">
         <v>5690</v>
       </c>
       <c r="J30" s="4"/>
@@ -3860,24 +3864,24 @@
       <c r="A31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="12">
         <v>2780</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="12">
         <v>2990</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4">
         <v>30</v>
       </c>
-      <c r="F31" s="16"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="17">
+        <v>64</v>
+      </c>
+      <c r="H31" s="12">
         <v>4550</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="12">
         <v>4890</v>
       </c>
       <c r="J31" s="4"/>
@@ -3887,26 +3891,26 @@
     </row>
     <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="17">
+        <v>85</v>
+      </c>
+      <c r="B32" s="12">
         <v>2770</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="12">
         <v>2990</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4">
         <v>30</v>
       </c>
-      <c r="F32" s="16"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32" s="17">
+        <v>54</v>
+      </c>
+      <c r="H32" s="12">
         <v>5100</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="12">
         <v>5490</v>
       </c>
       <c r="J32" s="4">
@@ -3918,24 +3922,24 @@
     </row>
     <row r="33" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="17">
+        <v>95</v>
+      </c>
+      <c r="B33" s="12">
         <v>8290</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="12">
         <v>8890</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="16"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="12">
         <v>5560</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="12">
         <v>5990</v>
       </c>
       <c r="J33" s="4">
@@ -3947,22 +3951,22 @@
     </row>
     <row r="34" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="17">
+        <v>96</v>
+      </c>
+      <c r="B34" s="12">
         <v>8340</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="12">
         <v>8990</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4">
         <v>100</v>
       </c>
-      <c r="F34" s="16"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
@@ -3970,24 +3974,24 @@
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="12">
         <v>9190</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="12">
         <v>9990</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4">
         <v>170</v>
       </c>
-      <c r="F35" s="16"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="12">
         <v>5390</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="12">
         <v>5790</v>
       </c>
       <c r="J35" s="4">
@@ -3999,24 +4003,24 @@
     </row>
     <row r="36" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="17">
+        <v>86</v>
+      </c>
+      <c r="B36" s="12">
         <v>6540</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="12">
         <v>6990</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="16"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="12">
         <v>3560</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="12">
         <v>3840</v>
       </c>
       <c r="J36" s="4">
@@ -4028,26 +4032,26 @@
     </row>
     <row r="37" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="17">
+        <v>87</v>
+      </c>
+      <c r="B37" s="12">
         <v>5290</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="12">
         <v>5690</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4">
         <v>80</v>
       </c>
-      <c r="F37" s="16"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37" s="17">
+        <v>51</v>
+      </c>
+      <c r="H37" s="12">
         <v>3340</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="12">
         <v>3590</v>
       </c>
       <c r="J37" s="4">
@@ -4059,26 +4063,26 @@
     </row>
     <row r="38" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="17">
+        <v>88</v>
+      </c>
+      <c r="B38" s="12">
         <v>5470</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="12">
         <v>5890</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4">
         <v>70</v>
       </c>
-      <c r="F38" s="16"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H38" s="17">
+        <v>42</v>
+      </c>
+      <c r="H38" s="12">
         <v>4500</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="12">
         <v>4790</v>
       </c>
       <c r="J38" s="4"/>
@@ -4088,26 +4092,26 @@
     </row>
     <row r="39" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="17">
+        <v>89</v>
+      </c>
+      <c r="B39" s="12">
         <v>5750</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="12">
         <v>6190</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4">
         <v>80</v>
       </c>
-      <c r="F39" s="16"/>
+      <c r="F39" s="11"/>
       <c r="G39" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="12">
         <v>5390</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="12">
         <v>5790</v>
       </c>
       <c r="J39" s="4"/>
@@ -4117,26 +4121,26 @@
     </row>
     <row r="40" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40" s="17">
+        <v>90</v>
+      </c>
+      <c r="B40" s="12">
         <v>5550</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="12">
         <v>5990</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4">
         <v>60</v>
       </c>
-      <c r="F40" s="16"/>
+      <c r="F40" s="11"/>
       <c r="G40" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="12">
         <v>4970</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="12">
         <v>5290</v>
       </c>
       <c r="J40" s="4"/>
@@ -4146,26 +4150,26 @@
     </row>
     <row r="41" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="17">
+        <v>91</v>
+      </c>
+      <c r="B41" s="12">
         <v>5940</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="12">
         <v>6390</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4">
         <v>90</v>
       </c>
-      <c r="F41" s="16"/>
+      <c r="F41" s="11"/>
       <c r="G41" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H41" s="17">
+        <v>56</v>
+      </c>
+      <c r="H41" s="12">
         <v>4015</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I41" s="12">
         <v>4390</v>
       </c>
       <c r="J41" s="4"/>
@@ -4175,18 +4179,18 @@
     </row>
     <row r="42" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="16"/>
+      <c r="F42" s="11"/>
       <c r="G42" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="12">
         <v>3710</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="12">
         <v>3990</v>
       </c>
       <c r="J42" s="4">
@@ -4198,26 +4202,26 @@
     </row>
     <row r="43" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="17">
+        <v>92</v>
+      </c>
+      <c r="B43" s="12">
         <v>6530</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="12">
         <v>6990</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4">
         <v>0</v>
       </c>
-      <c r="F43" s="16"/>
+      <c r="F43" s="11"/>
       <c r="G43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H43" s="17">
+        <v>43</v>
+      </c>
+      <c r="H43" s="12">
         <v>3620</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="12">
         <v>3890</v>
       </c>
       <c r="J43" s="4">
@@ -4229,26 +4233,26 @@
     </row>
     <row r="44" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="17">
+        <v>93</v>
+      </c>
+      <c r="B44" s="12">
         <v>6890</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="12">
         <v>7490</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4">
         <v>0</v>
       </c>
-      <c r="F44" s="16"/>
+      <c r="F44" s="11"/>
       <c r="G44" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H44" s="17">
+        <v>53</v>
+      </c>
+      <c r="H44" s="12">
         <v>4080</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="12">
         <v>4390</v>
       </c>
       <c r="J44" s="4">
@@ -4262,24 +4266,24 @@
       <c r="A45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="12">
         <v>1220</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="12">
         <v>1320</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4">
         <v>20</v>
       </c>
-      <c r="F45" s="16"/>
+      <c r="F45" s="11"/>
       <c r="G45" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="12">
         <v>4220</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="12">
         <v>4540</v>
       </c>
       <c r="J45" s="4"/>
@@ -4291,24 +4295,24 @@
       <c r="A46" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="12">
         <v>1460</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="12">
         <v>1590</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4">
         <v>20</v>
       </c>
-      <c r="F46" s="16"/>
+      <c r="F46" s="11"/>
       <c r="G46" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H46" s="17">
+        <v>73</v>
+      </c>
+      <c r="H46" s="12">
         <v>3710</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="12">
         <v>3990</v>
       </c>
       <c r="J46" s="4"/>
@@ -4318,83 +4322,83 @@
     </row>
     <row r="47" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="17">
+        <v>71</v>
+      </c>
+      <c r="B47" s="12">
         <v>1070</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="12">
         <v>1160</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4">
         <v>0</v>
       </c>
-      <c r="F47" s="16"/>
+      <c r="F47" s="11"/>
       <c r="G47" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" s="17">
-        <v>12590</v>
-      </c>
-      <c r="I47" s="17">
-        <v>13490</v>
+        <v>100</v>
+      </c>
+      <c r="H47" s="12">
+        <v>3610</v>
+      </c>
+      <c r="I47" s="12">
+        <v>3890</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="17">
+        <v>97</v>
+      </c>
+      <c r="B48" s="12">
         <v>1160</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="12">
         <v>1250</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="16"/>
+      <c r="F48" s="11"/>
       <c r="G48" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H48" s="17">
-        <v>7890</v>
-      </c>
-      <c r="I48" s="17">
-        <v>8490</v>
+        <v>99</v>
+      </c>
+      <c r="H48" s="12">
+        <v>3890</v>
+      </c>
+      <c r="I48" s="12">
+        <v>4190</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="17">
+        <v>60</v>
+      </c>
+      <c r="B49" s="12">
         <v>1200</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="12">
         <v>1290</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4">
         <v>0</v>
       </c>
-      <c r="F49" s="16"/>
+      <c r="F49" s="11"/>
       <c r="G49" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H49" s="17">
-        <v>8310</v>
-      </c>
-      <c r="I49" s="17">
-        <v>8990</v>
+        <v>62</v>
+      </c>
+      <c r="H49" s="12">
+        <v>7890</v>
+      </c>
+      <c r="I49" s="12">
+        <v>8490</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4">
@@ -4405,84 +4409,92 @@
       <c r="A50" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="12">
         <v>1080</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="12">
         <v>1160</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4">
         <v>10</v>
       </c>
-      <c r="F50" s="16"/>
+      <c r="F50" s="11"/>
       <c r="G50" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
+        <v>94</v>
+      </c>
+      <c r="H50" s="12">
+        <v>8310</v>
+      </c>
+      <c r="I50" s="12">
+        <v>8990</v>
+      </c>
       <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="18"/>
+      <c r="K50" s="4">
+        <v>0</v>
+      </c>
+      <c r="L50" s="13"/>
     </row>
     <row r="51" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="12">
         <v>1100</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="12">
         <v>1199</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4">
         <v>20</v>
       </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
-      <c r="L51" s="18"/>
+      <c r="L51" s="13"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="22" t="s">
         <v>77</v>
-      </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="22" t="s">
-        <v>78</v>
       </c>
       <c r="J52" s="22"/>
       <c r="K52" s="23"/>
-      <c r="L52" s="24"/>
+      <c r="L52" s="14"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="14"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L54" s="18"/>
+      <c r="L54" s="13"/>
     </row>
   </sheetData>
   <sortState ref="A7:H83">
@@ -4517,12 +4529,12 @@
   </cols>
   <sheetData>
     <row r="6" spans="4:4" ht="153" x14ac:dyDescent="0.25">
-      <c r="D6" s="30">
+      <c r="D6" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="4:4" ht="153" x14ac:dyDescent="0.25">
-      <c r="D7" s="30">
+      <c r="D7" s="15">
         <v>19</v>
       </c>
     </row>
